--- a/CMA_survey_by_HAS.xlsx
+++ b/CMA_survey_by_HAS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{222FE8C9-2C40-4D55-9349-A69D77AB9CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0385FAF0-9CC1-4C20-8FEF-43E40B572520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-21710" windowWidth="29020" windowHeight="15700" xr2:uid="{1FD83E19-AC93-4F26-B1E0-24A2538C5DB1}"/>
+    <workbookView xWindow="38290" yWindow="-10" windowWidth="38620" windowHeight="21100" xr2:uid="{1FD83E19-AC93-4F26-B1E0-24A2538C5DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
-    <sheet name="exported_result" sheetId="2" r:id="rId2"/>
+    <sheet name="2021" sheetId="3" r:id="rId2"/>
+    <sheet name="2022" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>Inflation</t>
   </si>
@@ -466,12 +467,25 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
@@ -1427,13 +1441,1957 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1563076-1B36-45F6-ADAE-F3D693CEA55A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00832247-FC1A-44AF-8C94-66B6BA988B7D}">
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="K1">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>6</v>
+      </c>
+      <c r="N1">
+        <v>7</v>
+      </c>
+      <c r="O1">
+        <v>8</v>
+      </c>
+      <c r="P1">
+        <v>9</v>
+      </c>
+      <c r="Q1">
+        <v>10</v>
+      </c>
+      <c r="R1">
+        <v>11</v>
+      </c>
+      <c r="S1">
+        <v>12</v>
+      </c>
+      <c r="T1">
+        <v>13</v>
+      </c>
+      <c r="U1">
+        <v>14</v>
+      </c>
+      <c r="V1">
+        <v>15</v>
+      </c>
+      <c r="W1">
+        <v>16</v>
+      </c>
+      <c r="X1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.16420000000000001</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.01E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.20169999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.9</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.1832</v>
+      </c>
+      <c r="H4">
+        <v>0.82</v>
+      </c>
+      <c r="I4">
+        <v>0.77</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.72</v>
+      </c>
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5">
+        <v>0.8</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.19</v>
+      </c>
+      <c r="I6">
+        <v>0.15</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <v>0.18</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.18E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.18</v>
+      </c>
+      <c r="I7">
+        <v>0.13</v>
+      </c>
+      <c r="J7">
+        <v>0.18</v>
+      </c>
+      <c r="K7">
+        <v>0.15</v>
+      </c>
+      <c r="L7">
+        <v>0.86</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.78E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.63</v>
+      </c>
+      <c r="I8">
+        <v>0.63</v>
+      </c>
+      <c r="J8">
+        <v>0.62</v>
+      </c>
+      <c r="K8">
+        <v>0.62</v>
+      </c>
+      <c r="L8">
+        <v>0.43</v>
+      </c>
+      <c r="M8">
+        <v>0.36</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.53E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.15</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0.3</v>
+      </c>
+      <c r="K9">
+        <v>0.26</v>
+      </c>
+      <c r="L9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M9">
+        <v>0.51</v>
+      </c>
+      <c r="N9">
+        <v>0.24</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.24E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.11260000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.48</v>
+      </c>
+      <c r="I10">
+        <v>0.45</v>
+      </c>
+      <c r="J10">
+        <v>0.52</v>
+      </c>
+      <c r="K10">
+        <v>0.61</v>
+      </c>
+      <c r="L10">
+        <v>0.49</v>
+      </c>
+      <c r="M10">
+        <v>0.43</v>
+      </c>
+      <c r="N10">
+        <v>0.6</v>
+      </c>
+      <c r="O10">
+        <v>0.41</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>-0.06</v>
+      </c>
+      <c r="I11">
+        <v>-0.06</v>
+      </c>
+      <c r="J11">
+        <v>-0.04</v>
+      </c>
+      <c r="K11">
+        <v>-0.03</v>
+      </c>
+      <c r="L11">
+        <v>0.12</v>
+      </c>
+      <c r="M11">
+        <v>0.09</v>
+      </c>
+      <c r="N11">
+        <v>-0.1</v>
+      </c>
+      <c r="O11">
+        <v>0.16</v>
+      </c>
+      <c r="P11">
+        <v>0.01</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.77E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.05</v>
+      </c>
+      <c r="I12">
+        <v>0.02</v>
+      </c>
+      <c r="J12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K12">
+        <v>0.12</v>
+      </c>
+      <c r="L12">
+        <v>0.66</v>
+      </c>
+      <c r="M12">
+        <v>0.59</v>
+      </c>
+      <c r="N12">
+        <v>0.27</v>
+      </c>
+      <c r="O12">
+        <v>0.47</v>
+      </c>
+      <c r="P12">
+        <v>0.35</v>
+      </c>
+      <c r="Q12">
+        <v>0.13</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.1762</v>
+      </c>
+      <c r="H13">
+        <v>0.6</v>
+      </c>
+      <c r="I13">
+        <v>0.62</v>
+      </c>
+      <c r="J13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K13">
+        <v>0.49</v>
+      </c>
+      <c r="L13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M13">
+        <v>0.26</v>
+      </c>
+      <c r="N13">
+        <v>0.52</v>
+      </c>
+      <c r="O13">
+        <v>0.24</v>
+      </c>
+      <c r="P13">
+        <v>0.43</v>
+      </c>
+      <c r="Q13">
+        <v>-0.01</v>
+      </c>
+      <c r="R13">
+        <v>0.19</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5.33E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8.09E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.68</v>
+      </c>
+      <c r="I14">
+        <v>0.68</v>
+      </c>
+      <c r="J14">
+        <v>0.68</v>
+      </c>
+      <c r="K14">
+        <v>0.65</v>
+      </c>
+      <c r="L14">
+        <v>0.22</v>
+      </c>
+      <c r="M14">
+        <v>0.17</v>
+      </c>
+      <c r="N14">
+        <v>0.59</v>
+      </c>
+      <c r="O14">
+        <v>0.19</v>
+      </c>
+      <c r="P14">
+        <v>0.48</v>
+      </c>
+      <c r="Q14">
+        <v>-0.01</v>
+      </c>
+      <c r="R14">
+        <v>0.12</v>
+      </c>
+      <c r="S14">
+        <v>0.45</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.45E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.1731</v>
+      </c>
+      <c r="H15">
+        <v>0.34</v>
+      </c>
+      <c r="I15">
+        <v>0.34</v>
+      </c>
+      <c r="J15">
+        <v>0.42</v>
+      </c>
+      <c r="K15">
+        <v>0.44</v>
+      </c>
+      <c r="L15">
+        <v>0.08</v>
+      </c>
+      <c r="M15">
+        <v>0.02</v>
+      </c>
+      <c r="N15">
+        <v>0.38</v>
+      </c>
+      <c r="O15">
+        <v>0.21</v>
+      </c>
+      <c r="P15">
+        <v>0.33</v>
+      </c>
+      <c r="Q15">
+        <v>0.02</v>
+      </c>
+      <c r="R15">
+        <v>0.18</v>
+      </c>
+      <c r="S15">
+        <v>0.25</v>
+      </c>
+      <c r="T15">
+        <v>0.4</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.09E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1704</v>
+      </c>
+      <c r="H16">
+        <v>0.62</v>
+      </c>
+      <c r="I16">
+        <v>0.59</v>
+      </c>
+      <c r="J16">
+        <v>0.65</v>
+      </c>
+      <c r="K16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M16">
+        <v>0.32</v>
+      </c>
+      <c r="N16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O16">
+        <v>0.32</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <v>-0.03</v>
+      </c>
+      <c r="R16">
+        <v>0.19</v>
+      </c>
+      <c r="S16">
+        <v>0.5</v>
+      </c>
+      <c r="T16">
+        <v>0.52</v>
+      </c>
+      <c r="U16">
+        <v>0.41</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.1123</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.1227</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.2225</v>
+      </c>
+      <c r="H17">
+        <v>0.74</v>
+      </c>
+      <c r="I17">
+        <v>0.74</v>
+      </c>
+      <c r="J17">
+        <v>0.69</v>
+      </c>
+      <c r="K17">
+        <v>0.61</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+      <c r="M17">
+        <v>0.1</v>
+      </c>
+      <c r="N17">
+        <v>0.51</v>
+      </c>
+      <c r="O17">
+        <v>0.11</v>
+      </c>
+      <c r="P17">
+        <v>0.38</v>
+      </c>
+      <c r="Q17">
+        <v>-0.03</v>
+      </c>
+      <c r="R17">
+        <v>0.01</v>
+      </c>
+      <c r="S17">
+        <v>0.5</v>
+      </c>
+      <c r="T17">
+        <v>0.59</v>
+      </c>
+      <c r="U17">
+        <v>0.33</v>
+      </c>
+      <c r="V17">
+        <v>0.54</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.1142</v>
+      </c>
+      <c r="H18">
+        <v>0.54</v>
+      </c>
+      <c r="I18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J18">
+        <v>0.54</v>
+      </c>
+      <c r="K18">
+        <v>0.52</v>
+      </c>
+      <c r="L18">
+        <v>0.26</v>
+      </c>
+      <c r="M18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N18">
+        <v>0.71</v>
+      </c>
+      <c r="O18">
+        <v>0.15</v>
+      </c>
+      <c r="P18">
+        <v>0.44</v>
+      </c>
+      <c r="Q18">
+        <v>-0.04</v>
+      </c>
+      <c r="R18">
+        <v>0.11</v>
+      </c>
+      <c r="S18">
+        <v>0.46</v>
+      </c>
+      <c r="T18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U18">
+        <v>0.37</v>
+      </c>
+      <c r="V18">
+        <v>0.5</v>
+      </c>
+      <c r="W18">
+        <v>0.54</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.12E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.24E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133F9995-C13F-445D-8298-2B321A158D67}">
+  <dimension ref="A1:X19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="K1">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>6</v>
+      </c>
+      <c r="N1">
+        <v>7</v>
+      </c>
+      <c r="O1">
+        <v>8</v>
+      </c>
+      <c r="P1">
+        <v>9</v>
+      </c>
+      <c r="Q1">
+        <v>10</v>
+      </c>
+      <c r="R1">
+        <v>11</v>
+      </c>
+      <c r="S1">
+        <v>12</v>
+      </c>
+      <c r="T1">
+        <v>13</v>
+      </c>
+      <c r="U1">
+        <v>14</v>
+      </c>
+      <c r="V1">
+        <v>15</v>
+      </c>
+      <c r="W1">
+        <v>16</v>
+      </c>
+      <c r="X1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.17E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.91E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.54E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1633</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.2034</v>
+      </c>
+      <c r="H3">
+        <v>0.9</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.54E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.82</v>
+      </c>
+      <c r="I4">
+        <v>0.77</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1067</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.2392</v>
+      </c>
+      <c r="H5">
+        <v>0.71</v>
+      </c>
+      <c r="I5">
+        <v>0.69</v>
+      </c>
+      <c r="J5">
+        <v>0.79</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.63E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.49E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.18</v>
+      </c>
+      <c r="I6">
+        <v>0.13</v>
+      </c>
+      <c r="J6">
+        <v>0.18</v>
+      </c>
+      <c r="K6">
+        <v>0.16</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.02E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1048</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.19</v>
+      </c>
+      <c r="K7">
+        <v>0.15</v>
+      </c>
+      <c r="L7">
+        <v>0.86</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.65</v>
+      </c>
+      <c r="I8">
+        <v>0.65</v>
+      </c>
+      <c r="J8">
+        <v>0.63</v>
+      </c>
+      <c r="K8">
+        <v>0.62</v>
+      </c>
+      <c r="L8">
+        <v>0.41</v>
+      </c>
+      <c r="M8">
+        <v>0.36</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.47E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7.51E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.15</v>
+      </c>
+      <c r="I9">
+        <v>0.11</v>
+      </c>
+      <c r="J9">
+        <v>0.3</v>
+      </c>
+      <c r="K9">
+        <v>0.24</v>
+      </c>
+      <c r="L9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M9">
+        <v>0.5</v>
+      </c>
+      <c r="N9">
+        <v>0.25</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.65E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <v>0.47</v>
+      </c>
+      <c r="J10">
+        <v>0.53</v>
+      </c>
+      <c r="K10">
+        <v>0.6</v>
+      </c>
+      <c r="L10">
+        <v>0.51</v>
+      </c>
+      <c r="M10">
+        <v>0.46</v>
+      </c>
+      <c r="N10">
+        <v>0.62</v>
+      </c>
+      <c r="O10">
+        <v>0.44</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="H11">
+        <v>-0.08</v>
+      </c>
+      <c r="I11">
+        <v>-0.1</v>
+      </c>
+      <c r="J11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K11">
+        <v>-0.06</v>
+      </c>
+      <c r="L11">
+        <v>0.13</v>
+      </c>
+      <c r="M11">
+        <v>0.08</v>
+      </c>
+      <c r="N11">
+        <v>-0.09</v>
+      </c>
+      <c r="O11">
+        <v>0.13</v>
+      </c>
+      <c r="P11">
+        <v>0.02</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.64E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.79E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.05</v>
+      </c>
+      <c r="I12">
+        <v>0.02</v>
+      </c>
+      <c r="J12">
+        <v>0.06</v>
+      </c>
+      <c r="K12">
+        <v>0.11</v>
+      </c>
+      <c r="L12">
+        <v>0.63</v>
+      </c>
+      <c r="M12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N12">
+        <v>0.24</v>
+      </c>
+      <c r="O12">
+        <v>0.45</v>
+      </c>
+      <c r="P12">
+        <v>0.36</v>
+      </c>
+      <c r="Q12">
+        <v>0.15</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="H13">
+        <v>0.59</v>
+      </c>
+      <c r="I13">
+        <v>0.59</v>
+      </c>
+      <c r="J13">
+        <v>0.54</v>
+      </c>
+      <c r="K13">
+        <v>0.46</v>
+      </c>
+      <c r="L13">
+        <v>0.25</v>
+      </c>
+      <c r="M13">
+        <v>0.22</v>
+      </c>
+      <c r="N13">
+        <v>0.51</v>
+      </c>
+      <c r="O13">
+        <v>0.21</v>
+      </c>
+      <c r="P13">
+        <v>0.41</v>
+      </c>
+      <c r="Q13">
+        <v>-0.02</v>
+      </c>
+      <c r="R13">
+        <v>0.16</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.7</v>
+      </c>
+      <c r="I14">
+        <v>0.7</v>
+      </c>
+      <c r="J14">
+        <v>0.69</v>
+      </c>
+      <c r="K14">
+        <v>0.65</v>
+      </c>
+      <c r="L14">
+        <v>0.21</v>
+      </c>
+      <c r="M14">
+        <v>0.18</v>
+      </c>
+      <c r="N14">
+        <v>0.62</v>
+      </c>
+      <c r="O14">
+        <v>0.18</v>
+      </c>
+      <c r="P14">
+        <v>0.48</v>
+      </c>
+      <c r="Q14">
+        <v>-0.03</v>
+      </c>
+      <c r="R14">
+        <v>0.13</v>
+      </c>
+      <c r="S14">
+        <v>0.45</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.35</v>
+      </c>
+      <c r="I15">
+        <v>0.36</v>
+      </c>
+      <c r="J15">
+        <v>0.42</v>
+      </c>
+      <c r="K15">
+        <v>0.43</v>
+      </c>
+      <c r="L15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.03</v>
+      </c>
+      <c r="N15">
+        <v>0.38</v>
+      </c>
+      <c r="O15">
+        <v>0.19</v>
+      </c>
+      <c r="P15">
+        <v>0.31</v>
+      </c>
+      <c r="Q15">
+        <v>-0.01</v>
+      </c>
+      <c r="R15">
+        <v>0.18</v>
+      </c>
+      <c r="S15">
+        <v>0.26</v>
+      </c>
+      <c r="T15">
+        <v>0.4</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1663</v>
+      </c>
+      <c r="H16">
+        <v>0.63</v>
+      </c>
+      <c r="I16">
+        <v>0.61</v>
+      </c>
+      <c r="J16">
+        <v>0.65</v>
+      </c>
+      <c r="K16">
+        <v>0.59</v>
+      </c>
+      <c r="L16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M16">
+        <v>0.33</v>
+      </c>
+      <c r="N16">
+        <v>0.6</v>
+      </c>
+      <c r="O16">
+        <v>0.3</v>
+      </c>
+      <c r="P16">
+        <v>0.51</v>
+      </c>
+      <c r="Q16">
+        <v>-0.02</v>
+      </c>
+      <c r="R16">
+        <v>0.19</v>
+      </c>
+      <c r="S16">
+        <v>0.49</v>
+      </c>
+      <c r="T16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U16">
+        <v>0.44</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.2213</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+      <c r="I17">
+        <v>0.75</v>
+      </c>
+      <c r="J17">
+        <v>0.7</v>
+      </c>
+      <c r="K17">
+        <v>0.63</v>
+      </c>
+      <c r="L17">
+        <v>0.11</v>
+      </c>
+      <c r="M17">
+        <v>0.12</v>
+      </c>
+      <c r="N17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P17">
+        <v>0.4</v>
+      </c>
+      <c r="Q17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="R17">
+        <v>0.03</v>
+      </c>
+      <c r="S17">
+        <v>0.49</v>
+      </c>
+      <c r="T17">
+        <v>0.62</v>
+      </c>
+      <c r="U17">
+        <v>0.34</v>
+      </c>
+      <c r="V17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.1149</v>
+      </c>
+      <c r="H18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K18">
+        <v>0.52</v>
+      </c>
+      <c r="L18">
+        <v>0.22</v>
+      </c>
+      <c r="M18">
+        <v>0.19</v>
+      </c>
+      <c r="N18">
+        <v>0.72</v>
+      </c>
+      <c r="O18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P18">
+        <v>0.43</v>
+      </c>
+      <c r="Q18">
+        <v>-0.1</v>
+      </c>
+      <c r="R18">
+        <v>0.06</v>
+      </c>
+      <c r="S18">
+        <v>0.43</v>
+      </c>
+      <c r="T18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U18">
+        <v>0.34</v>
+      </c>
+      <c r="V18">
+        <v>0.5</v>
+      </c>
+      <c r="W18">
+        <v>0.59</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.47E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.07E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>